--- a/municipal/დემოგრაფია/ბუნებრივი მატება/საჩხერე.xlsx
+++ b/municipal/დემოგრაფია/ბუნებრივი მატება/საჩხერე.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\დემოგრაფია\Tamunas cxrilebi\qarTuli\cx 15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\demo\demo\2) გარდაცვალება 2022\ბუნებრივი მატება\ბუნებრივი მატება\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9066735-FBBF-41AE-A3E4-5FAA0B52F606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281B2934-0BD5-43B7-8586-DCBB3605B2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="1200" windowWidth="10800" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2730" windowWidth="28830" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +103,12 @@
       <name val="Sylfaen"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -118,7 +124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -210,7 +216,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -220,6 +226,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -229,31 +285,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -262,7 +296,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -273,10 +307,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -294,27 +325,18 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -322,157 +344,40 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal_Mosaxleoba na 1.1 raionebis mixedvit" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <condense val="0"/>
@@ -895,316 +800,341 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="22" customWidth="1"/>
-    <col min="2" max="13" width="7.5703125" style="22" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="23.28515625" style="18" customWidth="1"/>
+    <col min="2" max="11" width="7.5703125" style="18" customWidth="1"/>
+    <col min="12" max="15" width="6.7109375" style="18" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
     </row>
-    <row r="2" spans="1:44" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7"/>
+    <row r="2" spans="1:44" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
     </row>
-    <row r="3" spans="1:44" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:44" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="6"/>
-      <c r="AR3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
     </row>
     <row r="4" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3">
         <v>2010</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>2011</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>2012</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>2013</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>2014</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>2015</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>2016</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>2017</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>2018</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>2019</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>2020</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="20">
         <v>2021</v>
+      </c>
+      <c r="N4" s="24">
+        <v>2022</v>
+      </c>
+      <c r="O4" s="21">
+        <v>2023</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>-142</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>-176</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>-189</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>-196</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>31</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>36</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>-39</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <v>-24</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <v>-64</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="11">
         <v>-132</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="11">
         <v>-151</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="11">
         <v>-272</v>
+      </c>
+      <c r="N5" s="26">
+        <v>-194</v>
+      </c>
+      <c r="O5" s="22">
+        <v>-122</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="14">
-        <v>0</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13">
         <v>-4</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="13">
         <v>-2</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <v>-3</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <v>25</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="13">
         <v>4</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="13">
         <v>15</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="13">
         <v>27</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="13">
         <v>-20</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="13">
         <v>17</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="13">
         <v>-20</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="13">
         <v>-38</v>
+      </c>
+      <c r="N6" s="25">
+        <v>-19</v>
+      </c>
+      <c r="O6" s="19">
+        <v>-9</v>
       </c>
     </row>
     <row r="7" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="14">
         <v>-142</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="15">
         <v>-172</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="15">
         <v>-187</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="15">
         <v>-193</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="15">
         <v>6</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="15">
         <v>32</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="15">
         <v>-54</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="15">
         <v>-51</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="15">
         <v>-44</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="15">
         <v>-149</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="15">
         <v>-131</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="15">
         <v>-234</v>
+      </c>
+      <c r="N7" s="27">
+        <v>-175</v>
+      </c>
+      <c r="O7" s="23">
+        <v>-113</v>
       </c>
     </row>
   </sheetData>
@@ -1213,6 +1143,24 @@
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:CT3">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1227,10 +1175,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1245,10 +1193,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1263,10 +1211,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1281,28 +1229,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:CT3">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
